--- a/data/output/FV2404_FV2310/UTILMD/55171.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55171.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10838" uniqueCount="688">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10859" uniqueCount="688">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -2261,6 +2261,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U550" totalsRowShown="0">
+  <autoFilter ref="A1:U550"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2550,7 +2580,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U550"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -27007,5 +27040,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/UTILMD/55171.xlsx
+++ b/data/output/FV2404_FV2310/UTILMD/55171.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13031" uniqueCount="1229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12965" uniqueCount="1229">
   <si>
     <t>#</t>
   </si>
@@ -18353,44 +18353,42 @@
       <c r="V290" s="11"/>
     </row>
     <row r="291" spans="1:22">
-      <c r="A291" s="2" t="s">
+      <c r="A291" s="5" t="s">
         <v>971</v>
       </c>
-      <c r="B291" s="2" t="s">
+      <c r="B291" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C291" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D291" s="2"/>
-      <c r="E291" s="2"/>
-      <c r="F291" s="2"/>
-      <c r="G291" s="2"/>
-      <c r="H291" s="2"/>
-      <c r="I291" s="2"/>
-      <c r="J291" s="2" t="s">
+      <c r="C291" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D291" s="5"/>
+      <c r="E291" s="5"/>
+      <c r="F291" s="5"/>
+      <c r="G291" s="5"/>
+      <c r="H291" s="5"/>
+      <c r="I291" s="5"/>
+      <c r="J291" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="K291" s="2"/>
-      <c r="L291" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M291" s="2" t="s">
+      <c r="K291" s="5"/>
+      <c r="L291" s="7"/>
+      <c r="M291" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N291" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O291" s="2"/>
-      <c r="P291" s="2"/>
-      <c r="Q291" s="2"/>
-      <c r="R291" s="2"/>
-      <c r="S291" s="2"/>
-      <c r="T291" s="2"/>
-      <c r="U291" s="2" t="s">
+      <c r="N291" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O291" s="5"/>
+      <c r="P291" s="5"/>
+      <c r="Q291" s="5"/>
+      <c r="R291" s="5"/>
+      <c r="S291" s="5"/>
+      <c r="T291" s="5"/>
+      <c r="U291" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="V291" s="2"/>
+      <c r="V291" s="5"/>
     </row>
     <row r="292" spans="1:22">
       <c r="A292" s="2" t="s">
@@ -18524,9 +18522,7 @@
         <v>425</v>
       </c>
       <c r="K294" s="2"/>
-      <c r="L294" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L294" s="7"/>
       <c r="M294" s="2" t="s">
         <v>52</v>
       </c>
@@ -24209,46 +24205,44 @@
       <c r="V419" s="2"/>
     </row>
     <row r="420" spans="1:22">
-      <c r="A420" s="2" t="s">
+      <c r="A420" s="5" t="s">
         <v>1098</v>
       </c>
-      <c r="B420" s="2" t="s">
+      <c r="B420" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C420" s="2" t="s">
+      <c r="C420" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D420" s="2"/>
-      <c r="E420" s="2"/>
-      <c r="F420" s="2"/>
-      <c r="G420" s="2"/>
-      <c r="H420" s="2"/>
-      <c r="I420" s="2"/>
-      <c r="J420" s="2" t="s">
+      <c r="D420" s="5"/>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+      <c r="G420" s="5"/>
+      <c r="H420" s="5"/>
+      <c r="I420" s="5"/>
+      <c r="J420" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="K420" s="2" t="s">
+      <c r="K420" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="L420" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M420" s="2" t="s">
+      <c r="L420" s="7"/>
+      <c r="M420" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N420" s="2" t="s">
+      <c r="N420" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O420" s="2"/>
-      <c r="P420" s="2"/>
-      <c r="Q420" s="2"/>
-      <c r="R420" s="2"/>
-      <c r="S420" s="2"/>
-      <c r="T420" s="2"/>
-      <c r="U420" s="2" t="s">
+      <c r="O420" s="5"/>
+      <c r="P420" s="5"/>
+      <c r="Q420" s="5"/>
+      <c r="R420" s="5"/>
+      <c r="S420" s="5"/>
+      <c r="T420" s="5"/>
+      <c r="U420" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="V420" s="2" t="s">
+      <c r="V420" s="5" t="s">
         <v>532</v>
       </c>
     </row>
@@ -24494,9 +24488,7 @@
       <c r="K425" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="L425" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L425" s="7"/>
       <c r="M425" s="2" t="s">
         <v>86</v>
       </c>
@@ -25289,46 +25281,44 @@
       <c r="V439" s="2"/>
     </row>
     <row r="440" spans="1:22">
-      <c r="A440" s="2" t="s">
+      <c r="A440" s="5" t="s">
         <v>1118</v>
       </c>
-      <c r="B440" s="2" t="s">
+      <c r="B440" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C440" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D440" s="2"/>
-      <c r="E440" s="2"/>
-      <c r="F440" s="2"/>
-      <c r="G440" s="2"/>
-      <c r="H440" s="2"/>
-      <c r="I440" s="2"/>
-      <c r="J440" s="2" t="s">
+      <c r="C440" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D440" s="5"/>
+      <c r="E440" s="5"/>
+      <c r="F440" s="5"/>
+      <c r="G440" s="5"/>
+      <c r="H440" s="5"/>
+      <c r="I440" s="5"/>
+      <c r="J440" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="K440" s="2" t="s">
+      <c r="K440" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="L440" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M440" s="2" t="s">
+      <c r="L440" s="7"/>
+      <c r="M440" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N440" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O440" s="2"/>
-      <c r="P440" s="2"/>
-      <c r="Q440" s="2"/>
-      <c r="R440" s="2"/>
-      <c r="S440" s="2"/>
-      <c r="T440" s="2"/>
-      <c r="U440" s="2" t="s">
+      <c r="N440" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O440" s="5"/>
+      <c r="P440" s="5"/>
+      <c r="Q440" s="5"/>
+      <c r="R440" s="5"/>
+      <c r="S440" s="5"/>
+      <c r="T440" s="5"/>
+      <c r="U440" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="V440" s="2" t="s">
+      <c r="V440" s="5" t="s">
         <v>538</v>
       </c>
     </row>
@@ -25568,9 +25558,7 @@
         <v>422</v>
       </c>
       <c r="K445" s="2"/>
-      <c r="L445" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L445" s="7"/>
       <c r="M445" s="2" t="s">
         <v>58</v>
       </c>
@@ -25624,9 +25612,7 @@
         <v>422</v>
       </c>
       <c r="K446" s="2"/>
-      <c r="L446" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L446" s="7"/>
       <c r="M446" s="2" t="s">
         <v>58</v>
       </c>
@@ -25680,9 +25666,7 @@
         <v>422</v>
       </c>
       <c r="K447" s="2"/>
-      <c r="L447" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L447" s="7"/>
       <c r="M447" s="2" t="s">
         <v>58</v>
       </c>
@@ -25709,46 +25693,44 @@
       <c r="V447" s="2"/>
     </row>
     <row r="448" spans="1:22">
-      <c r="A448" s="2" t="s">
+      <c r="A448" s="5" t="s">
         <v>1126</v>
       </c>
-      <c r="B448" s="2" t="s">
+      <c r="B448" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C448" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D448" s="2"/>
-      <c r="E448" s="2"/>
-      <c r="F448" s="2"/>
-      <c r="G448" s="2"/>
-      <c r="H448" s="2"/>
-      <c r="I448" s="2"/>
-      <c r="J448" s="2" t="s">
+      <c r="C448" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D448" s="5"/>
+      <c r="E448" s="5"/>
+      <c r="F448" s="5"/>
+      <c r="G448" s="5"/>
+      <c r="H448" s="5"/>
+      <c r="I448" s="5"/>
+      <c r="J448" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="K448" s="2" t="s">
+      <c r="K448" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="L448" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M448" s="2" t="s">
+      <c r="L448" s="7"/>
+      <c r="M448" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N448" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O448" s="2"/>
-      <c r="P448" s="2"/>
-      <c r="Q448" s="2"/>
-      <c r="R448" s="2"/>
-      <c r="S448" s="2"/>
-      <c r="T448" s="2"/>
-      <c r="U448" s="2" t="s">
+      <c r="N448" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O448" s="5"/>
+      <c r="P448" s="5"/>
+      <c r="Q448" s="5"/>
+      <c r="R448" s="5"/>
+      <c r="S448" s="5"/>
+      <c r="T448" s="5"/>
+      <c r="U448" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="V448" s="2" t="s">
+      <c r="V448" s="5" t="s">
         <v>539</v>
       </c>
     </row>
@@ -25911,46 +25893,44 @@
       <c r="V451" s="2"/>
     </row>
     <row r="452" spans="1:22">
-      <c r="A452" s="2" t="s">
+      <c r="A452" s="5" t="s">
         <v>1130</v>
       </c>
-      <c r="B452" s="2" t="s">
+      <c r="B452" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C452" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D452" s="2"/>
-      <c r="E452" s="2"/>
-      <c r="F452" s="2"/>
-      <c r="G452" s="2"/>
-      <c r="H452" s="2"/>
-      <c r="I452" s="2"/>
-      <c r="J452" s="2" t="s">
+      <c r="C452" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D452" s="5"/>
+      <c r="E452" s="5"/>
+      <c r="F452" s="5"/>
+      <c r="G452" s="5"/>
+      <c r="H452" s="5"/>
+      <c r="I452" s="5"/>
+      <c r="J452" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="K452" s="2" t="s">
+      <c r="K452" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="L452" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M452" s="2" t="s">
+      <c r="L452" s="7"/>
+      <c r="M452" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="N452" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O452" s="2"/>
-      <c r="P452" s="2"/>
-      <c r="Q452" s="2"/>
-      <c r="R452" s="2"/>
-      <c r="S452" s="2"/>
-      <c r="T452" s="2"/>
-      <c r="U452" s="2" t="s">
+      <c r="N452" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O452" s="5"/>
+      <c r="P452" s="5"/>
+      <c r="Q452" s="5"/>
+      <c r="R452" s="5"/>
+      <c r="S452" s="5"/>
+      <c r="T452" s="5"/>
+      <c r="U452" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="V452" s="2" t="s">
+      <c r="V452" s="5" t="s">
         <v>519</v>
       </c>
     </row>
@@ -26113,46 +26093,44 @@
       <c r="V455" s="2"/>
     </row>
     <row r="456" spans="1:22">
-      <c r="A456" s="2" t="s">
+      <c r="A456" s="5" t="s">
         <v>1134</v>
       </c>
-      <c r="B456" s="2" t="s">
+      <c r="B456" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C456" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D456" s="2"/>
-      <c r="E456" s="2"/>
-      <c r="F456" s="2"/>
-      <c r="G456" s="2"/>
-      <c r="H456" s="2"/>
-      <c r="I456" s="2"/>
-      <c r="J456" s="2" t="s">
+      <c r="C456" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D456" s="5"/>
+      <c r="E456" s="5"/>
+      <c r="F456" s="5"/>
+      <c r="G456" s="5"/>
+      <c r="H456" s="5"/>
+      <c r="I456" s="5"/>
+      <c r="J456" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="K456" s="2" t="s">
+      <c r="K456" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="L456" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M456" s="2" t="s">
+      <c r="L456" s="7"/>
+      <c r="M456" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="N456" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O456" s="2"/>
-      <c r="P456" s="2"/>
-      <c r="Q456" s="2"/>
-      <c r="R456" s="2"/>
-      <c r="S456" s="2"/>
-      <c r="T456" s="2"/>
-      <c r="U456" s="2" t="s">
+      <c r="N456" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O456" s="5"/>
+      <c r="P456" s="5"/>
+      <c r="Q456" s="5"/>
+      <c r="R456" s="5"/>
+      <c r="S456" s="5"/>
+      <c r="T456" s="5"/>
+      <c r="U456" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="V456" s="2" t="s">
+      <c r="V456" s="5" t="s">
         <v>540</v>
       </c>
     </row>
@@ -26473,46 +26451,44 @@
       <c r="V462" s="2"/>
     </row>
     <row r="463" spans="1:22">
-      <c r="A463" s="2" t="s">
+      <c r="A463" s="5" t="s">
         <v>1141</v>
       </c>
-      <c r="B463" s="2" t="s">
+      <c r="B463" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C463" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D463" s="2"/>
-      <c r="E463" s="2"/>
-      <c r="F463" s="2"/>
-      <c r="G463" s="2"/>
-      <c r="H463" s="2"/>
-      <c r="I463" s="2"/>
-      <c r="J463" s="2" t="s">
+      <c r="C463" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D463" s="5"/>
+      <c r="E463" s="5"/>
+      <c r="F463" s="5"/>
+      <c r="G463" s="5"/>
+      <c r="H463" s="5"/>
+      <c r="I463" s="5"/>
+      <c r="J463" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="K463" s="2" t="s">
+      <c r="K463" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="L463" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M463" s="2" t="s">
+      <c r="L463" s="7"/>
+      <c r="M463" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="N463" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O463" s="2"/>
-      <c r="P463" s="2"/>
-      <c r="Q463" s="2"/>
-      <c r="R463" s="2"/>
-      <c r="S463" s="2"/>
-      <c r="T463" s="2"/>
-      <c r="U463" s="2" t="s">
+      <c r="N463" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O463" s="5"/>
+      <c r="P463" s="5"/>
+      <c r="Q463" s="5"/>
+      <c r="R463" s="5"/>
+      <c r="S463" s="5"/>
+      <c r="T463" s="5"/>
+      <c r="U463" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="V463" s="2" t="s">
+      <c r="V463" s="5" t="s">
         <v>541</v>
       </c>
     </row>
@@ -26675,46 +26651,44 @@
       <c r="V466" s="2"/>
     </row>
     <row r="467" spans="1:22">
-      <c r="A467" s="2" t="s">
+      <c r="A467" s="5" t="s">
         <v>1145</v>
       </c>
-      <c r="B467" s="2" t="s">
+      <c r="B467" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C467" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D467" s="2"/>
-      <c r="E467" s="2"/>
-      <c r="F467" s="2"/>
-      <c r="G467" s="2"/>
-      <c r="H467" s="2"/>
-      <c r="I467" s="2"/>
-      <c r="J467" s="2" t="s">
+      <c r="C467" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D467" s="5"/>
+      <c r="E467" s="5"/>
+      <c r="F467" s="5"/>
+      <c r="G467" s="5"/>
+      <c r="H467" s="5"/>
+      <c r="I467" s="5"/>
+      <c r="J467" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="K467" s="2" t="s">
+      <c r="K467" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="L467" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M467" s="2" t="s">
+      <c r="L467" s="7"/>
+      <c r="M467" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="N467" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O467" s="2"/>
-      <c r="P467" s="2"/>
-      <c r="Q467" s="2"/>
-      <c r="R467" s="2"/>
-      <c r="S467" s="2"/>
-      <c r="T467" s="2"/>
-      <c r="U467" s="2" t="s">
+      <c r="N467" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O467" s="5"/>
+      <c r="P467" s="5"/>
+      <c r="Q467" s="5"/>
+      <c r="R467" s="5"/>
+      <c r="S467" s="5"/>
+      <c r="T467" s="5"/>
+      <c r="U467" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="V467" s="2" t="s">
+      <c r="V467" s="5" t="s">
         <v>542</v>
       </c>
     </row>
@@ -26908,9 +26882,7 @@
         <v>422</v>
       </c>
       <c r="K471" s="2"/>
-      <c r="L471" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L471" s="7"/>
       <c r="M471" s="2" t="s">
         <v>93</v>
       </c>
@@ -26937,46 +26909,44 @@
       <c r="V471" s="2"/>
     </row>
     <row r="472" spans="1:22">
-      <c r="A472" s="2" t="s">
+      <c r="A472" s="5" t="s">
         <v>1150</v>
       </c>
-      <c r="B472" s="2" t="s">
+      <c r="B472" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C472" s="2" t="s">
+      <c r="C472" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D472" s="2"/>
-      <c r="E472" s="2"/>
-      <c r="F472" s="2"/>
-      <c r="G472" s="2"/>
-      <c r="H472" s="2"/>
-      <c r="I472" s="2"/>
-      <c r="J472" s="2" t="s">
+      <c r="D472" s="5"/>
+      <c r="E472" s="5"/>
+      <c r="F472" s="5"/>
+      <c r="G472" s="5"/>
+      <c r="H472" s="5"/>
+      <c r="I472" s="5"/>
+      <c r="J472" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="K472" s="2" t="s">
+      <c r="K472" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="L472" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M472" s="2" t="s">
+      <c r="L472" s="7"/>
+      <c r="M472" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="N472" s="2" t="s">
+      <c r="N472" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O472" s="2"/>
-      <c r="P472" s="2"/>
-      <c r="Q472" s="2"/>
-      <c r="R472" s="2"/>
-      <c r="S472" s="2"/>
-      <c r="T472" s="2"/>
-      <c r="U472" s="2" t="s">
+      <c r="O472" s="5"/>
+      <c r="P472" s="5"/>
+      <c r="Q472" s="5"/>
+      <c r="R472" s="5"/>
+      <c r="S472" s="5"/>
+      <c r="T472" s="5"/>
+      <c r="U472" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="V472" s="2" t="s">
+      <c r="V472" s="5" t="s">
         <v>543</v>
       </c>
     </row>
@@ -27243,44 +27213,42 @@
       <c r="V477" s="2"/>
     </row>
     <row r="478" spans="1:22">
-      <c r="A478" s="2" t="s">
+      <c r="A478" s="5" t="s">
         <v>1156</v>
       </c>
-      <c r="B478" s="2" t="s">
+      <c r="B478" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C478" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D478" s="2"/>
-      <c r="E478" s="2"/>
-      <c r="F478" s="2"/>
-      <c r="G478" s="2"/>
-      <c r="H478" s="2"/>
-      <c r="I478" s="2"/>
-      <c r="J478" s="2" t="s">
+      <c r="C478" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D478" s="5"/>
+      <c r="E478" s="5"/>
+      <c r="F478" s="5"/>
+      <c r="G478" s="5"/>
+      <c r="H478" s="5"/>
+      <c r="I478" s="5"/>
+      <c r="J478" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="K478" s="2"/>
-      <c r="L478" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M478" s="2" t="s">
+      <c r="K478" s="5"/>
+      <c r="L478" s="7"/>
+      <c r="M478" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="N478" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O478" s="2"/>
-      <c r="P478" s="2"/>
-      <c r="Q478" s="2"/>
-      <c r="R478" s="2"/>
-      <c r="S478" s="2"/>
-      <c r="T478" s="2"/>
-      <c r="U478" s="2" t="s">
+      <c r="N478" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O478" s="5"/>
+      <c r="P478" s="5"/>
+      <c r="Q478" s="5"/>
+      <c r="R478" s="5"/>
+      <c r="S478" s="5"/>
+      <c r="T478" s="5"/>
+      <c r="U478" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="V478" s="2"/>
+      <c r="V478" s="5"/>
     </row>
     <row r="479" spans="1:22">
       <c r="A479" s="2" t="s">
@@ -27680,9 +27648,7 @@
         <v>422</v>
       </c>
       <c r="K486" s="2"/>
-      <c r="L486" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L486" s="7"/>
       <c r="M486" s="2" t="s">
         <v>96</v>
       </c>
@@ -27736,9 +27702,7 @@
         <v>422</v>
       </c>
       <c r="K487" s="2"/>
-      <c r="L487" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L487" s="7"/>
       <c r="M487" s="2" t="s">
         <v>96</v>
       </c>
@@ -27792,9 +27756,7 @@
         <v>422</v>
       </c>
       <c r="K488" s="2"/>
-      <c r="L488" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L488" s="7"/>
       <c r="M488" s="2" t="s">
         <v>96</v>
       </c>
@@ -27879,46 +27841,44 @@
       </c>
     </row>
     <row r="490" spans="1:22">
-      <c r="A490" s="2" t="s">
+      <c r="A490" s="5" t="s">
         <v>1168</v>
       </c>
-      <c r="B490" s="2" t="s">
+      <c r="B490" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="C490" s="2" t="s">
+      <c r="C490" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D490" s="2"/>
-      <c r="E490" s="2"/>
-      <c r="F490" s="2"/>
-      <c r="G490" s="2"/>
-      <c r="H490" s="2"/>
-      <c r="I490" s="2"/>
-      <c r="J490" s="2" t="s">
+      <c r="D490" s="5"/>
+      <c r="E490" s="5"/>
+      <c r="F490" s="5"/>
+      <c r="G490" s="5"/>
+      <c r="H490" s="5"/>
+      <c r="I490" s="5"/>
+      <c r="J490" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="K490" s="2" t="s">
+      <c r="K490" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="L490" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M490" s="2" t="s">
+      <c r="L490" s="7"/>
+      <c r="M490" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="N490" s="2" t="s">
+      <c r="N490" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O490" s="2"/>
-      <c r="P490" s="2"/>
-      <c r="Q490" s="2"/>
-      <c r="R490" s="2"/>
-      <c r="S490" s="2"/>
-      <c r="T490" s="2"/>
-      <c r="U490" s="2" t="s">
+      <c r="O490" s="5"/>
+      <c r="P490" s="5"/>
+      <c r="Q490" s="5"/>
+      <c r="R490" s="5"/>
+      <c r="S490" s="5"/>
+      <c r="T490" s="5"/>
+      <c r="U490" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="V490" s="2" t="s">
+      <c r="V490" s="5" t="s">
         <v>546</v>
       </c>
     </row>
@@ -28185,44 +28145,42 @@
       <c r="V495" s="2"/>
     </row>
     <row r="496" spans="1:22">
-      <c r="A496" s="2" t="s">
+      <c r="A496" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="B496" s="2" t="s">
+      <c r="B496" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C496" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D496" s="2"/>
-      <c r="E496" s="2"/>
-      <c r="F496" s="2"/>
-      <c r="G496" s="2"/>
-      <c r="H496" s="2"/>
-      <c r="I496" s="2"/>
-      <c r="J496" s="2" t="s">
+      <c r="C496" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D496" s="5"/>
+      <c r="E496" s="5"/>
+      <c r="F496" s="5"/>
+      <c r="G496" s="5"/>
+      <c r="H496" s="5"/>
+      <c r="I496" s="5"/>
+      <c r="J496" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="K496" s="2"/>
-      <c r="L496" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M496" s="2" t="s">
+      <c r="K496" s="5"/>
+      <c r="L496" s="7"/>
+      <c r="M496" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="N496" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O496" s="2"/>
-      <c r="P496" s="2"/>
-      <c r="Q496" s="2"/>
-      <c r="R496" s="2"/>
-      <c r="S496" s="2"/>
-      <c r="T496" s="2"/>
-      <c r="U496" s="2" t="s">
+      <c r="N496" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O496" s="5"/>
+      <c r="P496" s="5"/>
+      <c r="Q496" s="5"/>
+      <c r="R496" s="5"/>
+      <c r="S496" s="5"/>
+      <c r="T496" s="5"/>
+      <c r="U496" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="V496" s="2"/>
+      <c r="V496" s="5"/>
     </row>
     <row r="497" spans="1:22">
       <c r="A497" s="2" t="s">
@@ -28618,9 +28576,7 @@
         <v>422</v>
       </c>
       <c r="K504" s="2"/>
-      <c r="L504" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L504" s="7"/>
       <c r="M504" s="2" t="s">
         <v>99</v>
       </c>
@@ -28674,9 +28630,7 @@
         <v>422</v>
       </c>
       <c r="K505" s="2"/>
-      <c r="L505" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L505" s="7"/>
       <c r="M505" s="2" t="s">
         <v>99</v>
       </c>
@@ -28730,9 +28684,7 @@
         <v>422</v>
       </c>
       <c r="K506" s="2"/>
-      <c r="L506" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L506" s="7"/>
       <c r="M506" s="2" t="s">
         <v>99</v>
       </c>
@@ -28786,9 +28738,7 @@
         <v>422</v>
       </c>
       <c r="K507" s="2"/>
-      <c r="L507" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L507" s="7"/>
       <c r="M507" s="2" t="s">
         <v>99</v>
       </c>
@@ -28842,9 +28792,7 @@
         <v>422</v>
       </c>
       <c r="K508" s="2"/>
-      <c r="L508" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L508" s="7"/>
       <c r="M508" s="2" t="s">
         <v>99</v>
       </c>
@@ -28871,46 +28819,44 @@
       <c r="V508" s="2"/>
     </row>
     <row r="509" spans="1:22">
-      <c r="A509" s="2" t="s">
+      <c r="A509" s="5" t="s">
         <v>1187</v>
       </c>
-      <c r="B509" s="2" t="s">
+      <c r="B509" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C509" s="2" t="s">
+      <c r="C509" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D509" s="2"/>
-      <c r="E509" s="2"/>
-      <c r="F509" s="2"/>
-      <c r="G509" s="2"/>
-      <c r="H509" s="2"/>
-      <c r="I509" s="2"/>
-      <c r="J509" s="2" t="s">
+      <c r="D509" s="5"/>
+      <c r="E509" s="5"/>
+      <c r="F509" s="5"/>
+      <c r="G509" s="5"/>
+      <c r="H509" s="5"/>
+      <c r="I509" s="5"/>
+      <c r="J509" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="K509" s="2" t="s">
+      <c r="K509" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="L509" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M509" s="2" t="s">
+      <c r="L509" s="7"/>
+      <c r="M509" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="N509" s="2" t="s">
+      <c r="N509" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O509" s="2"/>
-      <c r="P509" s="2"/>
-      <c r="Q509" s="2"/>
-      <c r="R509" s="2"/>
-      <c r="S509" s="2"/>
-      <c r="T509" s="2"/>
-      <c r="U509" s="2" t="s">
+      <c r="O509" s="5"/>
+      <c r="P509" s="5"/>
+      <c r="Q509" s="5"/>
+      <c r="R509" s="5"/>
+      <c r="S509" s="5"/>
+      <c r="T509" s="5"/>
+      <c r="U509" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="V509" s="2" t="s">
+      <c r="V509" s="5" t="s">
         <v>543</v>
       </c>
     </row>
@@ -29177,44 +29123,42 @@
       <c r="V514" s="2"/>
     </row>
     <row r="515" spans="1:22">
-      <c r="A515" s="2" t="s">
+      <c r="A515" s="5" t="s">
         <v>1193</v>
       </c>
-      <c r="B515" s="2" t="s">
+      <c r="B515" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C515" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D515" s="2"/>
-      <c r="E515" s="2"/>
-      <c r="F515" s="2"/>
-      <c r="G515" s="2"/>
-      <c r="H515" s="2"/>
-      <c r="I515" s="2"/>
-      <c r="J515" s="2" t="s">
+      <c r="C515" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D515" s="5"/>
+      <c r="E515" s="5"/>
+      <c r="F515" s="5"/>
+      <c r="G515" s="5"/>
+      <c r="H515" s="5"/>
+      <c r="I515" s="5"/>
+      <c r="J515" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="K515" s="2"/>
-      <c r="L515" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M515" s="2" t="s">
+      <c r="K515" s="5"/>
+      <c r="L515" s="7"/>
+      <c r="M515" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="N515" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O515" s="2"/>
-      <c r="P515" s="2"/>
-      <c r="Q515" s="2"/>
-      <c r="R515" s="2"/>
-      <c r="S515" s="2"/>
-      <c r="T515" s="2"/>
-      <c r="U515" s="2" t="s">
+      <c r="N515" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O515" s="5"/>
+      <c r="P515" s="5"/>
+      <c r="Q515" s="5"/>
+      <c r="R515" s="5"/>
+      <c r="S515" s="5"/>
+      <c r="T515" s="5"/>
+      <c r="U515" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="V515" s="2"/>
+      <c r="V515" s="5"/>
     </row>
     <row r="516" spans="1:22">
       <c r="A516" s="2" t="s">
@@ -29610,9 +29554,7 @@
         <v>422</v>
       </c>
       <c r="K523" s="2"/>
-      <c r="L523" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L523" s="7"/>
       <c r="M523" s="2" t="s">
         <v>102</v>
       </c>
@@ -29639,46 +29581,44 @@
       <c r="V523" s="2"/>
     </row>
     <row r="524" spans="1:22">
-      <c r="A524" s="2" t="s">
+      <c r="A524" s="5" t="s">
         <v>1202</v>
       </c>
-      <c r="B524" s="2" t="s">
+      <c r="B524" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C524" s="2" t="s">
+      <c r="C524" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D524" s="2"/>
-      <c r="E524" s="2"/>
-      <c r="F524" s="2"/>
-      <c r="G524" s="2"/>
-      <c r="H524" s="2"/>
-      <c r="I524" s="2"/>
-      <c r="J524" s="2" t="s">
+      <c r="D524" s="5"/>
+      <c r="E524" s="5"/>
+      <c r="F524" s="5"/>
+      <c r="G524" s="5"/>
+      <c r="H524" s="5"/>
+      <c r="I524" s="5"/>
+      <c r="J524" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="K524" s="2" t="s">
+      <c r="K524" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="L524" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M524" s="2" t="s">
+      <c r="L524" s="7"/>
+      <c r="M524" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="N524" s="2" t="s">
+      <c r="N524" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O524" s="2"/>
-      <c r="P524" s="2"/>
-      <c r="Q524" s="2"/>
-      <c r="R524" s="2"/>
-      <c r="S524" s="2"/>
-      <c r="T524" s="2"/>
-      <c r="U524" s="2" t="s">
+      <c r="O524" s="5"/>
+      <c r="P524" s="5"/>
+      <c r="Q524" s="5"/>
+      <c r="R524" s="5"/>
+      <c r="S524" s="5"/>
+      <c r="T524" s="5"/>
+      <c r="U524" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="V524" s="2" t="s">
+      <c r="V524" s="5" t="s">
         <v>547</v>
       </c>
     </row>
@@ -29806,9 +29746,7 @@
         <v>421</v>
       </c>
       <c r="K527" s="2"/>
-      <c r="L527" s="4" t="s">
-        <v>550</v>
-      </c>
+      <c r="L527" s="7"/>
       <c r="M527" s="2" t="s">
         <v>103</v>
       </c>
@@ -30093,46 +30031,44 @@
       </c>
     </row>
     <row r="533" spans="1:22">
-      <c r="A533" s="2" t="s">
+      <c r="A533" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="B533" s="2" t="s">
+      <c r="B533" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C533" s="2" t="s">
+      <c r="C533" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D533" s="2"/>
-      <c r="E533" s="2"/>
-      <c r="F533" s="2"/>
-      <c r="G533" s="2"/>
-      <c r="H533" s="2"/>
-      <c r="I533" s="2"/>
-      <c r="J533" s="2" t="s">
+      <c r="D533" s="5"/>
+      <c r="E533" s="5"/>
+      <c r="F533" s="5"/>
+      <c r="G533" s="5"/>
+      <c r="H533" s="5"/>
+      <c r="I533" s="5"/>
+      <c r="J533" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="K533" s="2" t="s">
+      <c r="K533" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="L533" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M533" s="2" t="s">
+      <c r="L533" s="7"/>
+      <c r="M533" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="N533" s="2" t="s">
+      <c r="N533" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O533" s="2"/>
-      <c r="P533" s="2"/>
-      <c r="Q533" s="2"/>
-      <c r="R533" s="2"/>
-      <c r="S533" s="2"/>
-      <c r="T533" s="2"/>
-      <c r="U533" s="2" t="s">
+      <c r="O533" s="5"/>
+      <c r="P533" s="5"/>
+      <c r="Q533" s="5"/>
+      <c r="R533" s="5"/>
+      <c r="S533" s="5"/>
+      <c r="T533" s="5"/>
+      <c r="U533" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="V533" s="2" t="s">
+      <c r="V533" s="5" t="s">
         <v>549</v>
       </c>
     </row>
@@ -30561,44 +30497,42 @@
       </c>
     </row>
     <row r="542" spans="1:22">
-      <c r="A542" s="2" t="s">
+      <c r="A542" s="5" t="s">
         <v>1220</v>
       </c>
-      <c r="B542" s="2" t="s">
+      <c r="B542" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C542" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D542" s="2"/>
-      <c r="E542" s="2"/>
-      <c r="F542" s="2"/>
-      <c r="G542" s="2"/>
-      <c r="H542" s="2"/>
-      <c r="I542" s="2"/>
-      <c r="J542" s="2" t="s">
+      <c r="C542" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D542" s="5"/>
+      <c r="E542" s="5"/>
+      <c r="F542" s="5"/>
+      <c r="G542" s="5"/>
+      <c r="H542" s="5"/>
+      <c r="I542" s="5"/>
+      <c r="J542" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="K542" s="2"/>
-      <c r="L542" s="4" t="s">
-        <v>550</v>
-      </c>
-      <c r="M542" s="2" t="s">
+      <c r="K542" s="5"/>
+      <c r="L542" s="7"/>
+      <c r="M542" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="N542" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="O542" s="2"/>
-      <c r="P542" s="2"/>
-      <c r="Q542" s="2"/>
-      <c r="R542" s="2"/>
-      <c r="S542" s="2"/>
-      <c r="T542" s="2"/>
-      <c r="U542" s="2" t="s">
+      <c r="N542" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O542" s="5"/>
+      <c r="P542" s="5"/>
+      <c r="Q542" s="5"/>
+      <c r="R542" s="5"/>
+      <c r="S542" s="5"/>
+      <c r="T542" s="5"/>
+      <c r="U542" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="V542" s="2"/>
+      <c r="V542" s="5"/>
     </row>
     <row r="543" spans="1:22">
       <c r="A543" s="2" t="s">
